--- a/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
+++ b/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnl18001\OneDrive - Mälardalens universitet\Robotics_program_university\Ongoing_courses\DVA490\SSL-Hardware-Development\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{26BAEA5D-5913-4A8E-B3D9-228D25EF71D5}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3CD2EEE0-48D2-4CF5-B9D2-A2FB5DC246C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,40 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Fredrik Westerbom:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Haven't reveived a quotation so I cannot know the price.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Communication Component</t>
   </si>
@@ -167,13 +135,28 @@
   </si>
   <si>
     <t>7,9*8,8*0,8</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs : ID 2167 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
+  </si>
+  <si>
+    <t>(20*10*8)</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs : ID 2168 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,17 +178,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
@@ -254,16 +226,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,18 +498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.6640625" customWidth="1"/>
     <col min="5" max="5" width="103.33203125" customWidth="1"/>
     <col min="6" max="6" width="43.109375" customWidth="1"/>
@@ -568,9 +541,9 @@
         <f>'Communication BOM'!B1</f>
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="str">
         <f>'Break Beam BOM'!B1</f>
-        <v>0</v>
+        <v>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>'Encoder BOM'!B1</f>
@@ -597,9 +570,9 @@
         <f>'Communication BOM'!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="str">
         <f>'Break Beam BOM'!B2</f>
-        <v>0</v>
+        <v>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs : ID 2168 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>'Encoder BOM'!B2</f>
@@ -622,9 +595,9 @@
         <f>'Communication BOM'!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="str">
         <f>'Break Beam BOM'!B3</f>
-        <v>0</v>
+        <v>(20*10*8)</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>'Encoder BOM'!B3</f>
@@ -649,7 +622,7 @@
       </c>
       <c r="C5" s="2">
         <f>'Break Beam BOM'!B4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <f>'Encoder BOM'!B4</f>
@@ -674,7 +647,7 @@
       </c>
       <c r="C6" s="2">
         <f>'Break Beam BOM'!B5</f>
-        <v>0</v>
+        <v>60.928000000000004</v>
       </c>
       <c r="D6" s="2">
         <f>'Encoder BOM'!B5</f>
@@ -699,7 +672,7 @@
       </c>
       <c r="C7" s="2">
         <f>'Break Beam BOM'!B6</f>
-        <v>0</v>
+        <v>60.928000000000004</v>
       </c>
       <c r="D7" s="2">
         <f>'Encoder BOM'!B6</f>
@@ -725,9 +698,9 @@
         <f>'Communication BOM'!D1</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="str">
         <f>'Break Beam BOM'!D1</f>
-        <v>0</v>
+        <v>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>'Encoder BOM'!D1</f>
@@ -750,9 +723,9 @@
         <f>'Communication BOM'!D2</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="str">
         <f>'Break Beam BOM'!D2</f>
-        <v>0</v>
+        <v>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs : ID 2167 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>'Encoder BOM'!D2</f>
@@ -775,9 +748,9 @@
         <f>'Communication BOM'!D3</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="str">
         <f>'Break Beam BOM'!D3</f>
-        <v>0</v>
+        <v>(20*10*8)</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>'Encoder BOM'!D3</f>
@@ -802,7 +775,7 @@
       </c>
       <c r="C12" s="4">
         <f>'Break Beam BOM'!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <f>'Encoder BOM'!D4</f>
@@ -827,7 +800,7 @@
       </c>
       <c r="C13" s="4">
         <f>'Break Beam BOM'!D5</f>
-        <v>0</v>
+        <v>30.208000000000002</v>
       </c>
       <c r="D13" s="4">
         <f>'Encoder BOM'!D5</f>
@@ -852,7 +825,7 @@
       </c>
       <c r="C14" s="4">
         <f>'Break Beam BOM'!D6</f>
-        <v>0</v>
+        <v>30.208000000000002</v>
       </c>
       <c r="D14" s="4">
         <f>'Encoder BOM'!D6</f>
@@ -1023,7 +996,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1146,15 +1118,15 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="2" max="2" width="113.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
@@ -1175,8 +1147,14 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
       <c r="C1" t="s">
         <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1190,8 +1168,14 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1201,8 +1185,14 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1212,8 +1202,14 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1223,8 +1219,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <f>10.24*5.95</f>
+        <v>60.928000000000004</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5">
+        <f>10.24*2.95</f>
+        <v>30.208000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1234,12 +1238,16 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6">
+        <f>B4*B5</f>
+        <v>60.928000000000004</v>
+      </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
         <f>D4*D5</f>
-        <v>0</v>
+        <v>30.208000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1250,8 +1258,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.adafruit.com/product/2167" xr:uid="{57993EA2-747B-4AE5-807D-E363B2ABE16D}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.adafruit.com/product/2168" xr:uid="{A86CBDD0-4070-4ACB-913B-CBB24F3417FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
+++ b/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnl18001\OneDrive - Mälardalens universitet\Robotics_program_university\Ongoing_courses\DVA490\SSL-Hardware-Development\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/fnl18001_student_mdu_se/Documents/Robotics_program_university/Ongoing_courses/DVA490/SSL-Hardware-Development/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3CD2EEE0-48D2-4CF5-B9D2-A2FB5DC246C8}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F892E946-5C04-4380-9CF0-3976955E676D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete BOM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Communication Component</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs : ID 2168 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
+  </si>
+  <si>
+    <t>Officiell Raspberry Pi HQ-kamera 12,3 MP ned SONY IMX477R- sensor</t>
+  </si>
+  <si>
+    <t>r-pi</t>
+  </si>
+  <si>
+    <t>38*38*18,43)</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -237,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +565,7 @@
       </c>
       <c r="F2" s="2" t="str">
         <f>'Obstical detection BOM'!B1</f>
-        <v>OPT8241NBN</v>
+        <v>Officiell Raspberry Pi HQ-kamera 12,3 MP ned SONY IMX477R- sensor</v>
       </c>
       <c r="R2">
         <f>P2*Q2</f>
@@ -584,7 +594,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>'Obstical detection BOM'!B2</f>
-        <v>OPT8241NBN Texas Instruments | Mouser Sverige</v>
+        <v>r-pi</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -609,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>'Obstical detection BOM'!B3</f>
-        <v>7,9*8,8*0,8</v>
+        <v>38*38*18,43)</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -659,7 +669,7 @@
       </c>
       <c r="F6" s="2">
         <f>'Obstical detection BOM'!B5</f>
-        <v>605.13</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -684,7 +694,7 @@
       </c>
       <c r="F7" s="2">
         <f>'Obstical detection BOM'!B6</f>
-        <v>605.13</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -710,9 +720,9 @@
         <f>'IMU BOM'!D1</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="str">
         <f>'Obstical detection BOM'!D1</f>
-        <v>0</v>
+        <v>OPT8241NBN</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -735,9 +745,9 @@
         <f>'IMU BOM'!D2</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="str">
         <f>'Obstical detection BOM'!D2</f>
-        <v>0</v>
+        <v>OPT8241NBN Texas Instruments | Mouser Sverige</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -760,9 +770,9 @@
         <f>'IMU BOM'!D3</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="str">
         <f>'Obstical detection BOM'!D3</f>
-        <v>0</v>
+        <v>7,9*8,8*0,8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -787,7 +797,7 @@
       </c>
       <c r="F12" s="4">
         <f>'Obstical detection BOM'!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -812,7 +822,7 @@
       </c>
       <c r="F13" s="4">
         <f>'Obstical detection BOM'!D5</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -837,7 +847,7 @@
       </c>
       <c r="F14" s="4">
         <f>'Obstical detection BOM'!D6</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1602,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1621,7 @@
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
@@ -1633,10 +1643,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1650,11 +1663,14 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1665,10 +1681,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1684,6 +1703,9 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -1693,10 +1715,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>605.13</v>
+        <v>698</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5">
+        <v>605.13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1708,14 +1733,14 @@
       </c>
       <c r="B6">
         <f>B4*B5</f>
-        <v>605.13</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
         <f>D4*D5</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1727,7 +1752,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E5B8FF7C-875F-4748-8F34-4C06611B4EC6}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F90DF394-D00E-4A31-ABED-5A5470CD174D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
+++ b/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/fnl18001_student_mdu_se/Documents/Robotics_program_university/Ongoing_courses/DVA490/SSL-Hardware-Development/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F892E946-5C04-4380-9CF0-3976955E676D}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4F63CB6A-2F83-4BBF-AA30-C96559F409E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete BOM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Communication Component</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>38*38*18,43)</t>
+  </si>
+  <si>
+    <t>Not applicable since ESP32 supports WiFi communication</t>
   </si>
 </sst>
 </file>
@@ -511,18 +514,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.6640625" customWidth="1"/>
     <col min="5" max="5" width="103.33203125" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="6" max="6" width="58.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,9 +550,9 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="str">
         <f>'Communication BOM'!B1</f>
-        <v>0</v>
+        <v>Not applicable since ESP32 supports WiFi communication</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>'Break Beam BOM'!B1</f>
@@ -1014,15 +1017,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
@@ -1042,6 +1045,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1612,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>

--- a/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
+++ b/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/fnl18001_student_mdu_se/Documents/Robotics_program_university/Ongoing_courses/DVA490/SSL-Hardware-Development/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4F63CB6A-2F83-4BBF-AA30-C96559F409E7}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{737BFB06-C4ED-4CC2-A4E8-0475E1053C90}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fredrik Westerbom</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CAE2C77D-A078-45A2-A933-39814B1EC7E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fredrik Westerbom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Please see the 'Obsticle detection BOM' sheet for additional information.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>Communication Component</t>
   </si>
@@ -119,9 +153,6 @@
     <t>WSEN-ISDS 6 Axis IMU</t>
   </si>
   <si>
-    <t>⁣WSEN-ISDS 6 Axis IMU (Inertial Measurement Unit) &amp; EV-Kits | Sensors | Würth Elektronik Product Catalog (we-online.com)</t>
-  </si>
-  <si>
     <t>3,0*2,5*0,86</t>
   </si>
   <si>
@@ -140,18 +171,12 @@
     <t>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs</t>
   </si>
   <si>
-    <t>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs : ID 2167 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
-  </si>
-  <si>
     <t>(20*10*8)</t>
   </si>
   <si>
     <t>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs</t>
   </si>
   <si>
-    <t>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs : ID 2168 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
-  </si>
-  <si>
     <t>Officiell Raspberry Pi HQ-kamera 12,3 MP ned SONY IMX477R- sensor</t>
   </si>
   <si>
@@ -162,13 +187,34 @@
   </si>
   <si>
     <t>Not applicable since ESP32 supports WiFi communication</t>
+  </si>
+  <si>
+    <t>Adafruit 5mm</t>
+  </si>
+  <si>
+    <t>Adafruit 3mm</t>
+  </si>
+  <si>
+    <t>we-online</t>
+  </si>
+  <si>
+    <t>Additional Component</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3 Model A+</t>
+  </si>
+  <si>
+    <t>Electro:kit Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>(65*56*10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +244,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -334,6 +393,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7970580" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEFA8FE-2683-4487-A180-1191908A75FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="1790700"/>
+          <a:ext cx="7970580" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100"/>
+            <a:t>If we are going with our</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t> primary component we will need Raspberry Pi as well. Please see the additional component specification below</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +714,7 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>'Break Beam BOM'!B2</f>
-        <v>IR Break Beam Sensor with Premium Wire Header Ends - 5mm LEDs : ID 2168 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</v>
+        <v>Adafruit 5mm</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>'Encoder BOM'!B2</f>
@@ -593,7 +722,7 @@
       </c>
       <c r="E3" s="2" t="str">
         <f>'IMU BOM'!B2</f>
-        <v>⁣WSEN-ISDS 6 Axis IMU (Inertial Measurement Unit) &amp; EV-Kits | Sensors | Würth Elektronik Product Catalog (we-online.com)</v>
+        <v>we-online</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>'Obstical detection BOM'!B2</f>
@@ -738,7 +867,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'Break Beam BOM'!D2</f>
-        <v>IR Break Beam Sensors with Premium Wire Header Ends - 3mm LEDs : ID 2167 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</v>
+        <v>Adafruit 3mm</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>'Encoder BOM'!D2</f>
@@ -1009,6 +1138,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1047,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1134,7 +1264,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,13 +1294,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1185,13 +1315,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1202,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1275,8 +1405,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.adafruit.com/product/2167" xr:uid="{57993EA2-747B-4AE5-807D-E363B2ABE16D}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.adafruit.com/product/2168" xr:uid="{A86CBDD0-4070-4ACB-913B-CBB24F3417FB}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Adafruit" xr:uid="{FEFDF3C0-111B-4E9D-99F0-4B4C5211F93A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C13F210E-370F-4FB1-AD06-6465D677BD3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1483,7 +1613,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,8 +1660,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1545,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1573,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1607,7 +1737,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="2536030320001" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" location="2536030320001" xr:uid="{E7FB9528-54D0-4589-A2BE-5123F733AF4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1616,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1670,13 +1800,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1687,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1754,14 +1884,65 @@
       <c r="F6">
         <f>F4*F5</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <f>B16*B17</f>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E5B8FF7C-875F-4748-8F34-4C06611B4EC6}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F90DF394-D00E-4A31-ABED-5A5470CD174D}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{C4091ABB-FB3F-4D6C-999E-2A7FEC7CC0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
+++ b/BOM/RoboCUP_SSL_Hardware_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/fnl18001_student_mdu_se/Documents/Robotics_program_university/Ongoing_courses/DVA490/SSL-Hardware-Development/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{737BFB06-C4ED-4CC2-A4E8-0475E1053C90}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_746B6E28CE293E4F3E464F6686B02C4FF617E8F7" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CEE15753-AED5-4A11-B5DD-AE0D27337307}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>Communication Component</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>(65*56*10)</t>
+  </si>
+  <si>
+    <t>ESP32-CAM Utvecklingskort</t>
+  </si>
+  <si>
+    <t>Electro:kit - ESP32 url</t>
+  </si>
+  <si>
+    <t>(40*27*15)</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,9 +842,7 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="4">
         <f>'Communication BOM'!D1</f>
         <v>0</v>
@@ -854,7 +861,7 @@
       </c>
       <c r="F9" s="4" t="str">
         <f>'Obstical detection BOM'!D1</f>
-        <v>OPT8241NBN</v>
+        <v>ESP32-CAM Utvecklingskort</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -879,7 +886,7 @@
       </c>
       <c r="F10" s="4" t="str">
         <f>'Obstical detection BOM'!D2</f>
-        <v>OPT8241NBN Texas Instruments | Mouser Sverige</v>
+        <v>Electro:kit - ESP32 url</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -904,7 +911,7 @@
       </c>
       <c r="F11" s="4" t="str">
         <f>'Obstical detection BOM'!D3</f>
-        <v>7,9*8,8*0,8</v>
+        <v>(40*27*15)</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -954,7 +961,7 @@
       </c>
       <c r="F13" s="4">
         <f>'Obstical detection BOM'!D5</f>
-        <v>605.13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -979,7 +986,7 @@
       </c>
       <c r="F14" s="4">
         <f>'Obstical detection BOM'!D6</f>
-        <v>605.13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -1005,9 +1012,9 @@
         <f>'IMU BOM'!F1</f>
         <v>0</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="5" t="str">
         <f>'Obstical detection BOM'!F1</f>
-        <v>0</v>
+        <v>OPT8241NBN</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1030,9 +1037,9 @@
         <f>'IMU BOM'!F2</f>
         <v>0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="5" t="str">
         <f>'Obstical detection BOM'!F2</f>
-        <v>0</v>
+        <v>OPT8241NBN Texas Instruments | Mouser Sverige</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1055,9 +1062,9 @@
         <f>'IMU BOM'!F3</f>
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="5" t="str">
         <f>'Obstical detection BOM'!F3</f>
-        <v>0</v>
+        <v>7,9*8,8*0,8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1082,7 +1089,7 @@
       </c>
       <c r="F19" s="5">
         <f>'Obstical detection BOM'!F4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1107,7 +1114,7 @@
       </c>
       <c r="F20" s="5">
         <f>'Obstical detection BOM'!F5</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1132,7 +1139,7 @@
       </c>
       <c r="F21" s="5">
         <f>'Obstical detection BOM'!F6</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
     </row>
   </sheetData>
@@ -1749,17 +1756,17 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
@@ -1785,10 +1792,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
       </c>
       <c r="R1">
         <f>P1*Q1</f>
@@ -1805,11 +1815,14 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1823,10 +1836,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1845,6 +1861,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1857,10 +1876,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>605.13</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5">
+        <v>605.13</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1876,14 +1898,14 @@
       </c>
       <c r="D6">
         <f>D4*D5</f>
-        <v>605.13</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
         <f>F4*F5</f>
-        <v>0</v>
+        <v>605.13</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1937,12 +1959,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E5B8FF7C-875F-4748-8F34-4C06611B4EC6}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E5B8FF7C-875F-4748-8F34-4C06611B4EC6}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F90DF394-D00E-4A31-ABED-5A5470CD174D}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{C4091ABB-FB3F-4D6C-999E-2A7FEC7CC0AA}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{FA8BC5CD-CEC1-404C-8689-5B663593DB51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>